--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dhh-Cdon.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dhh-Cdon.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.853892</v>
+        <v>0.29347</v>
       </c>
       <c r="H2">
-        <v>5.561676</v>
+        <v>0.8804099999999999</v>
       </c>
       <c r="I2">
-        <v>0.5711238486747862</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="J2">
-        <v>0.571123848674786</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.498163333333333</v>
+        <v>0.655792</v>
       </c>
       <c r="N2">
-        <v>4.49449</v>
+        <v>1.967376</v>
       </c>
       <c r="O2">
-        <v>0.02101839619520399</v>
+        <v>0.01246532615150124</v>
       </c>
       <c r="P2">
-        <v>0.021018396195204</v>
+        <v>0.01246532615150124</v>
       </c>
       <c r="Q2">
-        <v>2.77743301836</v>
+        <v>0.19245527824</v>
       </c>
       <c r="R2">
-        <v>24.99689716524</v>
+        <v>1.73209750416</v>
       </c>
       <c r="S2">
-        <v>0.01200410732797639</v>
+        <v>0.001871297388961619</v>
       </c>
       <c r="T2">
-        <v>0.01200410732797639</v>
+        <v>0.001871297388961619</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.853892</v>
+        <v>0.29347</v>
       </c>
       <c r="H3">
-        <v>5.561676</v>
+        <v>0.8804099999999999</v>
       </c>
       <c r="I3">
-        <v>0.5711238486747862</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="J3">
-        <v>0.571123848674786</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>83.897668</v>
       </c>
       <c r="O3">
-        <v>0.3923458336491322</v>
+        <v>0.5315769812025607</v>
       </c>
       <c r="P3">
-        <v>0.3923458336491322</v>
+        <v>0.5315769812025607</v>
       </c>
       <c r="Q3">
-        <v>51.845738507952</v>
+        <v>8.207149542653331</v>
       </c>
       <c r="R3">
-        <v>466.611646571568</v>
+        <v>73.86434588387999</v>
       </c>
       <c r="S3">
-        <v>0.2240780625252098</v>
+        <v>0.07980044844928921</v>
       </c>
       <c r="T3">
-        <v>0.2240780625252097</v>
+        <v>0.07980044844928921</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.853892</v>
+        <v>0.29347</v>
       </c>
       <c r="H4">
-        <v>5.561676</v>
+        <v>0.8804099999999999</v>
       </c>
       <c r="I4">
-        <v>0.5711238486747862</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="J4">
-        <v>0.571123848674786</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.81461766666666</v>
+        <v>23.987612</v>
       </c>
       <c r="N4">
-        <v>125.443853</v>
+        <v>71.962836</v>
       </c>
       <c r="O4">
-        <v>0.5866357701556637</v>
+        <v>0.4559576926459381</v>
       </c>
       <c r="P4">
-        <v>0.5866357701556638</v>
+        <v>0.4559576926459381</v>
       </c>
       <c r="Q4">
-        <v>77.519785175292</v>
+        <v>7.039644493639998</v>
       </c>
       <c r="R4">
-        <v>697.678066577628</v>
+        <v>63.35680044275999</v>
       </c>
       <c r="S4">
-        <v>0.3350416788215999</v>
+        <v>0.06844846491421731</v>
       </c>
       <c r="T4">
-        <v>0.3350416788215999</v>
+        <v>0.06844846491421733</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.278734</v>
       </c>
       <c r="I5">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="J5">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.498163333333333</v>
+        <v>0.655792</v>
       </c>
       <c r="N5">
-        <v>4.49449</v>
+        <v>1.967376</v>
       </c>
       <c r="O5">
-        <v>0.02101839619520399</v>
+        <v>0.01246532615150124</v>
       </c>
       <c r="P5">
-        <v>0.021018396195204</v>
+        <v>0.01246532615150124</v>
       </c>
       <c r="Q5">
-        <v>0.6385841306288889</v>
+        <v>0.2795278424426667</v>
       </c>
       <c r="R5">
-        <v>5.74725717566</v>
+        <v>2.515750581984</v>
       </c>
       <c r="S5">
-        <v>0.002759970228386651</v>
+        <v>0.002717928687062218</v>
       </c>
       <c r="T5">
-        <v>0.002759970228386651</v>
+        <v>0.002717928687062218</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.278734</v>
       </c>
       <c r="I6">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="J6">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>83.897668</v>
       </c>
       <c r="O6">
-        <v>0.3923458336491322</v>
+        <v>0.5315769812025607</v>
       </c>
       <c r="P6">
-        <v>0.3923458336491322</v>
+        <v>0.5315769812025607</v>
       </c>
       <c r="Q6">
         <v>11.92031117692355</v>
@@ -818,10 +818,10 @@
         <v>107.282800592312</v>
       </c>
       <c r="S6">
-        <v>0.05151976440287273</v>
+        <v>0.1159045747405793</v>
       </c>
       <c r="T6">
-        <v>0.05151976440287272</v>
+        <v>0.1159045747405793</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.278734</v>
       </c>
       <c r="I7">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="J7">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.81461766666666</v>
+        <v>23.987612</v>
       </c>
       <c r="N7">
-        <v>125.443853</v>
+        <v>71.962836</v>
       </c>
       <c r="O7">
-        <v>0.5866357701556637</v>
+        <v>0.4559576926459381</v>
       </c>
       <c r="P7">
-        <v>0.5866357701556638</v>
+        <v>0.4559576926459381</v>
       </c>
       <c r="Q7">
-        <v>17.82325776912244</v>
+        <v>10.22459168106933</v>
       </c>
       <c r="R7">
-        <v>160.409319922102</v>
+        <v>92.021325129624</v>
       </c>
       <c r="S7">
-        <v>0.07703238846100702</v>
+        <v>0.09941661195762971</v>
       </c>
       <c r="T7">
-        <v>0.07703238846100702</v>
+        <v>0.09941661195762973</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9659053333333333</v>
+        <v>1.235185333333333</v>
       </c>
       <c r="H8">
-        <v>2.897716</v>
+        <v>3.705556</v>
       </c>
       <c r="I8">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622607</v>
       </c>
       <c r="J8">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622606</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.498163333333333</v>
+        <v>0.655792</v>
       </c>
       <c r="N8">
-        <v>4.49449</v>
+        <v>1.967376</v>
       </c>
       <c r="O8">
-        <v>0.02101839619520399</v>
+        <v>0.01246532615150124</v>
       </c>
       <c r="P8">
-        <v>0.021018396195204</v>
+        <v>0.01246532615150124</v>
       </c>
       <c r="Q8">
-        <v>1.447083953871111</v>
+        <v>0.8100246601173334</v>
       </c>
       <c r="R8">
-        <v>13.02375558484</v>
+        <v>7.290221941056</v>
       </c>
       <c r="S8">
-        <v>0.006254318638840957</v>
+        <v>0.007876100075477408</v>
       </c>
       <c r="T8">
-        <v>0.006254318638840958</v>
+        <v>0.007876100075477406</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9659053333333333</v>
+        <v>1.235185333333333</v>
       </c>
       <c r="H9">
-        <v>2.897716</v>
+        <v>3.705556</v>
       </c>
       <c r="I9">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622607</v>
       </c>
       <c r="J9">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622606</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>83.897668</v>
       </c>
       <c r="O9">
-        <v>0.3923458336491322</v>
+        <v>0.5315769812025607</v>
       </c>
       <c r="P9">
-        <v>0.3923458336491322</v>
+        <v>0.5315769812025607</v>
       </c>
       <c r="Q9">
-        <v>27.01240165847644</v>
+        <v>34.54305633815645</v>
       </c>
       <c r="R9">
-        <v>243.111614926288</v>
+        <v>310.887507043408</v>
       </c>
       <c r="S9">
-        <v>0.1167480067210497</v>
+        <v>0.3358719580126923</v>
       </c>
       <c r="T9">
-        <v>0.1167480067210497</v>
+        <v>0.3358719580126922</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9659053333333333</v>
+        <v>1.235185333333333</v>
       </c>
       <c r="H10">
-        <v>2.897716</v>
+        <v>3.705556</v>
       </c>
       <c r="I10">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622607</v>
       </c>
       <c r="J10">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622606</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.81461766666666</v>
+        <v>23.987612</v>
       </c>
       <c r="N10">
-        <v>125.443853</v>
+        <v>71.962836</v>
       </c>
       <c r="O10">
-        <v>0.5866357701556637</v>
+        <v>0.4559576926459381</v>
       </c>
       <c r="P10">
-        <v>0.5866357701556638</v>
+        <v>0.4559576926459381</v>
       </c>
       <c r="Q10">
-        <v>40.38896221552755</v>
+        <v>29.62914652409066</v>
       </c>
       <c r="R10">
-        <v>363.5006599397479</v>
+        <v>266.662318716816</v>
       </c>
       <c r="S10">
-        <v>0.1745617028730568</v>
+        <v>0.2880926157740911</v>
       </c>
       <c r="T10">
-        <v>0.1745617028730568</v>
+        <v>0.2880926157740911</v>
       </c>
     </row>
   </sheetData>
